--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il12a-Il12rb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il12a-Il12rb1.xlsx
@@ -549,10 +549,10 @@
         <v>0.558189</v>
       </c>
       <c r="I2">
-        <v>0.09191909511096709</v>
+        <v>0.1001513154359418</v>
       </c>
       <c r="J2">
-        <v>0.1312230501990953</v>
+        <v>0.117124939437743</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.1353735</v>
+        <v>0.1727555</v>
       </c>
       <c r="N2">
-        <v>0.270747</v>
+        <v>0.345511</v>
       </c>
       <c r="O2">
-        <v>0.04105055407111535</v>
+        <v>0.1055017969849737</v>
       </c>
       <c r="P2">
-        <v>0.02891735738885384</v>
+        <v>0.08301621587853829</v>
       </c>
       <c r="Q2">
-        <v>0.0251879995305</v>
+        <v>0.0321434065965</v>
       </c>
       <c r="R2">
-        <v>0.151127997183</v>
+        <v>0.192860439579</v>
       </c>
       <c r="S2">
-        <v>0.003773329784020749</v>
+        <v>0.01056614374890079</v>
       </c>
       <c r="T2">
-        <v>0.003794623840262747</v>
+        <v>0.0097232692571244</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>0.558189</v>
       </c>
       <c r="I3">
-        <v>0.09191909511096709</v>
+        <v>0.1001513154359418</v>
       </c>
       <c r="J3">
-        <v>0.1312230501990953</v>
+        <v>0.117124939437743</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>1.398318</v>
       </c>
       <c r="O3">
-        <v>0.1413416182330463</v>
+        <v>0.2846509696390457</v>
       </c>
       <c r="P3">
-        <v>0.1493485111534655</v>
+        <v>0.3359750310550052</v>
       </c>
       <c r="Q3">
         <v>0.08672508067800001</v>
@@ -641,10 +641,10 @@
         <v>0.7805257261020001</v>
       </c>
       <c r="S3">
-        <v>0.01299199364950138</v>
+        <v>0.02850816904946675</v>
       </c>
       <c r="T3">
-        <v>0.01959796717625135</v>
+        <v>0.03935105516491132</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>0.558189</v>
       </c>
       <c r="I4">
-        <v>0.09191909511096709</v>
+        <v>0.1001513154359418</v>
       </c>
       <c r="J4">
-        <v>0.1312230501990953</v>
+        <v>0.117124939437743</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1538896666666667</v>
+        <v>0.268891</v>
       </c>
       <c r="N4">
-        <v>0.461669</v>
+        <v>0.806673</v>
       </c>
       <c r="O4">
-        <v>0.04666538194318621</v>
+        <v>0.1642117541443634</v>
       </c>
       <c r="P4">
-        <v>0.04930893959436213</v>
+        <v>0.1938199938971208</v>
       </c>
       <c r="Q4">
-        <v>0.028633173049</v>
+        <v>0.050030666133</v>
       </c>
       <c r="R4">
-        <v>0.257698557441</v>
+        <v>0.450275995197</v>
       </c>
       <c r="S4">
-        <v>0.004289439681225339</v>
+        <v>0.01644602318760146</v>
       </c>
       <c r="T4">
-        <v>0.00647046945565514</v>
+        <v>0.022701155047024</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>0.558189</v>
       </c>
       <c r="I5">
-        <v>0.09191909511096709</v>
+        <v>0.1001513154359418</v>
       </c>
       <c r="J5">
-        <v>0.1312230501990953</v>
+        <v>0.117124939437743</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.395021</v>
+        <v>0.5776695000000001</v>
       </c>
       <c r="N5">
-        <v>0.790042</v>
+        <v>1.155339</v>
       </c>
       <c r="O5">
-        <v>0.1197858585301116</v>
+        <v>0.3527828075714595</v>
       </c>
       <c r="P5">
-        <v>0.08438108960101079</v>
+        <v>0.2775942642546679</v>
       </c>
       <c r="Q5">
-        <v>0.07349879232300001</v>
+        <v>0.1074829201785</v>
       </c>
       <c r="R5">
-        <v>0.440992753938</v>
+        <v>0.6448975210710001</v>
       </c>
       <c r="S5">
-        <v>0.01101060772317817</v>
+        <v>0.03533166224146639</v>
       </c>
       <c r="T5">
-        <v>0.0110727439565678</v>
+        <v>0.03251321138909281</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,40 +797,40 @@
         <v>0.558189</v>
       </c>
       <c r="I6">
-        <v>0.09191909511096709</v>
+        <v>0.1001513154359418</v>
       </c>
       <c r="J6">
-        <v>0.1312230501990953</v>
+        <v>0.117124939437743</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.7400273333333334</v>
+        <v>0.04119366666666666</v>
       </c>
       <c r="N6">
-        <v>2.220082</v>
+        <v>0.123581</v>
       </c>
       <c r="O6">
-        <v>0.224405308728099</v>
+        <v>0.02515697536537676</v>
       </c>
       <c r="P6">
-        <v>0.2371176952156863</v>
+        <v>0.02969290984798064</v>
       </c>
       <c r="Q6">
-        <v>0.137691705722</v>
+        <v>0.007664617201</v>
       </c>
       <c r="R6">
-        <v>1.239225351498</v>
+        <v>0.06898155480900001</v>
       </c>
       <c r="S6">
-        <v>0.02062713291638406</v>
+        <v>0.002519504175232065</v>
       </c>
       <c r="T6">
-        <v>0.03111530722238178</v>
+        <v>0.003477780267675097</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>0.558189</v>
       </c>
       <c r="I7">
-        <v>0.09191909511096709</v>
+        <v>0.1001513154359418</v>
       </c>
       <c r="J7">
-        <v>0.1312230501990953</v>
+        <v>0.117124939437743</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.407309</v>
+        <v>0.1108493333333333</v>
       </c>
       <c r="N7">
-        <v>4.221927000000001</v>
+        <v>0.332548</v>
       </c>
       <c r="O7">
-        <v>0.4267512784944416</v>
+        <v>0.06769569629478085</v>
       </c>
       <c r="P7">
-        <v>0.4509264070466212</v>
+        <v>0.07990158506668717</v>
       </c>
       <c r="Q7">
-        <v>0.2618481344670001</v>
+        <v>0.020624959508</v>
       </c>
       <c r="R7">
-        <v>2.356633210203001</v>
+        <v>0.185624635572</v>
       </c>
       <c r="S7">
-        <v>0.03922659135665738</v>
+        <v>0.006779813033274312</v>
       </c>
       <c r="T7">
-        <v>0.05917193854797646</v>
+        <v>0.009358468311915408</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.81887</v>
+        <v>0.8076995</v>
       </c>
       <c r="H8">
-        <v>3.63774</v>
+        <v>1.615399</v>
       </c>
       <c r="I8">
-        <v>0.8985606193842124</v>
+        <v>0.4347568694579387</v>
       </c>
       <c r="J8">
-        <v>0.8551858575343779</v>
+        <v>0.338959581867057</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.1353735</v>
+        <v>0.1727555</v>
       </c>
       <c r="N8">
-        <v>0.270747</v>
+        <v>0.345511</v>
       </c>
       <c r="O8">
-        <v>0.04105055407111535</v>
+        <v>0.1055017969849737</v>
       </c>
       <c r="P8">
-        <v>0.02891735738885384</v>
+        <v>0.08301621587853829</v>
       </c>
       <c r="Q8">
-        <v>0.246226797945</v>
+        <v>0.13953453097225</v>
       </c>
       <c r="R8">
-        <v>0.9849071917799999</v>
+        <v>0.5581381238890001</v>
       </c>
       <c r="S8">
-        <v>0.03688641129220651</v>
+        <v>0.04586763097937417</v>
       </c>
       <c r="T8">
-        <v>0.02472971507621505</v>
+        <v>0.02813914182237467</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.81887</v>
+        <v>0.8076995</v>
       </c>
       <c r="H9">
-        <v>3.63774</v>
+        <v>1.615399</v>
       </c>
       <c r="I9">
-        <v>0.8985606193842124</v>
+        <v>0.4347568694579387</v>
       </c>
       <c r="J9">
-        <v>0.8551858575343779</v>
+        <v>0.338959581867057</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>1.398318</v>
       </c>
       <c r="O9">
-        <v>0.1413416182330463</v>
+        <v>0.2846509696390457</v>
       </c>
       <c r="P9">
-        <v>0.1493485111534655</v>
+        <v>0.3359750310550052</v>
       </c>
       <c r="Q9">
-        <v>0.8477862202200002</v>
+        <v>0.3764735831470001</v>
       </c>
       <c r="R9">
-        <v>5.086717321320001</v>
+        <v>2.258841498882</v>
       </c>
       <c r="S9">
-        <v>0.127004012024253</v>
+        <v>0.1237539644484383</v>
       </c>
       <c r="T9">
-        <v>0.127720734582259</v>
+        <v>0.113881956044176</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.81887</v>
+        <v>0.8076995</v>
       </c>
       <c r="H10">
-        <v>3.63774</v>
+        <v>1.615399</v>
       </c>
       <c r="I10">
-        <v>0.8985606193842124</v>
+        <v>0.4347568694579387</v>
       </c>
       <c r="J10">
-        <v>0.8551858575343779</v>
+        <v>0.338959581867057</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1538896666666667</v>
+        <v>0.268891</v>
       </c>
       <c r="N10">
-        <v>0.461669</v>
+        <v>0.806673</v>
       </c>
       <c r="O10">
-        <v>0.04666538194318621</v>
+        <v>0.1642117541443634</v>
       </c>
       <c r="P10">
-        <v>0.04930893959436213</v>
+        <v>0.1938199938971208</v>
       </c>
       <c r="Q10">
-        <v>0.27990529801</v>
+        <v>0.2171831262545</v>
       </c>
       <c r="R10">
-        <v>1.67943178806</v>
+        <v>1.303098757527</v>
       </c>
       <c r="S10">
-        <v>0.04193167450267024</v>
+        <v>0.07139218816000011</v>
       </c>
       <c r="T10">
-        <v>0.04216830779111542</v>
+        <v>0.06569714408884361</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.81887</v>
+        <v>0.8076995</v>
       </c>
       <c r="H11">
-        <v>3.63774</v>
+        <v>1.615399</v>
       </c>
       <c r="I11">
-        <v>0.8985606193842124</v>
+        <v>0.4347568694579387</v>
       </c>
       <c r="J11">
-        <v>0.8551858575343779</v>
+        <v>0.338959581867057</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.395021</v>
+        <v>0.5776695000000001</v>
       </c>
       <c r="N11">
-        <v>0.790042</v>
+        <v>1.155339</v>
       </c>
       <c r="O11">
-        <v>0.1197858585301116</v>
+        <v>0.3527828075714595</v>
       </c>
       <c r="P11">
-        <v>0.08438108960101079</v>
+        <v>0.2775942642546679</v>
       </c>
       <c r="Q11">
-        <v>0.7184918462700001</v>
+        <v>0.46658336631525</v>
       </c>
       <c r="R11">
-        <v>2.87396738508</v>
+        <v>1.866333465261</v>
       </c>
       <c r="S11">
-        <v>0.1076348552342867</v>
+        <v>0.1533747490183501</v>
       </c>
       <c r="T11">
-        <v>0.07216151447012559</v>
+        <v>0.09409323574045556</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.81887</v>
+        <v>0.8076995</v>
       </c>
       <c r="H12">
-        <v>3.63774</v>
+        <v>1.615399</v>
       </c>
       <c r="I12">
-        <v>0.8985606193842124</v>
+        <v>0.4347568694579387</v>
       </c>
       <c r="J12">
-        <v>0.8551858575343779</v>
+        <v>0.338959581867057</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.7400273333333334</v>
+        <v>0.04119366666666666</v>
       </c>
       <c r="N12">
-        <v>2.220082</v>
+        <v>0.123581</v>
       </c>
       <c r="O12">
-        <v>0.224405308728099</v>
+        <v>0.02515697536537676</v>
       </c>
       <c r="P12">
-        <v>0.2371176952156863</v>
+        <v>0.02969290984798064</v>
       </c>
       <c r="Q12">
-        <v>1.34601351578</v>
+        <v>0.03327210396983333</v>
       </c>
       <c r="R12">
-        <v>8.076081094680001</v>
+        <v>0.199632623819</v>
       </c>
       <c r="S12">
-        <v>0.201641773203826</v>
+        <v>0.01093716785488168</v>
       </c>
       <c r="T12">
-        <v>0.202779699519602</v>
+        <v>0.01006469630648774</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.81887</v>
+        <v>0.8076995</v>
       </c>
       <c r="H13">
-        <v>3.63774</v>
+        <v>1.615399</v>
       </c>
       <c r="I13">
-        <v>0.8985606193842124</v>
+        <v>0.4347568694579387</v>
       </c>
       <c r="J13">
-        <v>0.8551858575343779</v>
+        <v>0.338959581867057</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>1.407309</v>
+        <v>0.1108493333333333</v>
       </c>
       <c r="N13">
-        <v>4.221927000000001</v>
+        <v>0.332548</v>
       </c>
       <c r="O13">
-        <v>0.4267512784944416</v>
+        <v>0.06769569629478085</v>
       </c>
       <c r="P13">
-        <v>0.4509264070466212</v>
+        <v>0.07990158506668717</v>
       </c>
       <c r="Q13">
-        <v>2.55971212083</v>
+        <v>0.08953295110866667</v>
       </c>
       <c r="R13">
-        <v>15.35827272498</v>
+        <v>0.5371977066520001</v>
       </c>
       <c r="S13">
-        <v>0.38346189312697</v>
+        <v>0.0294311689968943</v>
       </c>
       <c r="T13">
-        <v>0.3856258860950608</v>
+        <v>0.02708340786471937</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.019271</v>
+        <v>0.8640563333333334</v>
       </c>
       <c r="H14">
-        <v>0.057813</v>
+        <v>2.592169</v>
       </c>
       <c r="I14">
-        <v>0.009520285504820663</v>
+        <v>0.4650918151061195</v>
       </c>
       <c r="J14">
-        <v>0.01359109226652674</v>
+        <v>0.5439154786951998</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.1353735</v>
+        <v>0.1727555</v>
       </c>
       <c r="N14">
-        <v>0.270747</v>
+        <v>0.345511</v>
       </c>
       <c r="O14">
-        <v>0.04105055407111535</v>
+        <v>0.1055017969849737</v>
       </c>
       <c r="P14">
-        <v>0.02891735738885384</v>
+        <v>0.08301621587853829</v>
       </c>
       <c r="Q14">
-        <v>0.0026087827185</v>
+        <v>0.1492704838931667</v>
       </c>
       <c r="R14">
-        <v>0.015652696311</v>
+        <v>0.8956229033590001</v>
       </c>
       <c r="S14">
-        <v>0.0003908129948880963</v>
+        <v>0.04906802225669876</v>
       </c>
       <c r="T14">
-        <v>0.0003930184723760414</v>
+        <v>0.0451538047990392</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.019271</v>
+        <v>0.8640563333333334</v>
       </c>
       <c r="H15">
-        <v>0.057813</v>
+        <v>2.592169</v>
       </c>
       <c r="I15">
-        <v>0.009520285504820663</v>
+        <v>0.4650918151061195</v>
       </c>
       <c r="J15">
-        <v>0.01359109226652674</v>
+        <v>0.5439154786951998</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.398318</v>
       </c>
       <c r="O15">
-        <v>0.1413416182330463</v>
+        <v>0.2846509696390457</v>
       </c>
       <c r="P15">
-        <v>0.1493485111534655</v>
+        <v>0.3359750310550052</v>
       </c>
       <c r="Q15">
-        <v>0.008982328726000001</v>
+        <v>0.4027418413046668</v>
       </c>
       <c r="R15">
-        <v>0.080840958534</v>
+        <v>3.624676571742001</v>
       </c>
       <c r="S15">
-        <v>0.001345612559291967</v>
+        <v>0.1323888361411407</v>
       </c>
       <c r="T15">
-        <v>0.002029809394955148</v>
+        <v>0.1827420198459178</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.019271</v>
+        <v>0.8640563333333334</v>
       </c>
       <c r="H16">
-        <v>0.057813</v>
+        <v>2.592169</v>
       </c>
       <c r="I16">
-        <v>0.009520285504820663</v>
+        <v>0.4650918151061195</v>
       </c>
       <c r="J16">
-        <v>0.01359109226652674</v>
+        <v>0.5439154786951998</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1538896666666667</v>
+        <v>0.268891</v>
       </c>
       <c r="N16">
-        <v>0.461669</v>
+        <v>0.806673</v>
       </c>
       <c r="O16">
-        <v>0.04666538194318621</v>
+        <v>0.1642117541443634</v>
       </c>
       <c r="P16">
-        <v>0.04930893959436213</v>
+        <v>0.1938199938971208</v>
       </c>
       <c r="Q16">
-        <v>0.002965607766333333</v>
+        <v>0.2323369715263333</v>
       </c>
       <c r="R16">
-        <v>0.026690469897</v>
+        <v>2.091032743737</v>
       </c>
       <c r="S16">
-        <v>0.0004442677592906356</v>
+        <v>0.0763735427967618</v>
       </c>
       <c r="T16">
-        <v>0.0006701623475915694</v>
+        <v>0.1054216947612532</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>21</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.019271</v>
+        <v>0.8640563333333334</v>
       </c>
       <c r="H17">
-        <v>0.057813</v>
+        <v>2.592169</v>
       </c>
       <c r="I17">
-        <v>0.009520285504820663</v>
+        <v>0.4650918151061195</v>
       </c>
       <c r="J17">
-        <v>0.01359109226652674</v>
+        <v>0.5439154786951998</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.395021</v>
+        <v>0.5776695000000001</v>
       </c>
       <c r="N17">
-        <v>0.790042</v>
+        <v>1.155339</v>
       </c>
       <c r="O17">
-        <v>0.1197858585301116</v>
+        <v>0.3527828075714595</v>
       </c>
       <c r="P17">
-        <v>0.08438108960101079</v>
+        <v>0.2775942642546679</v>
       </c>
       <c r="Q17">
-        <v>0.007612449691000001</v>
+        <v>0.4991389900485001</v>
       </c>
       <c r="R17">
-        <v>0.045674698146</v>
+        <v>2.994833940291</v>
       </c>
       <c r="S17">
-        <v>0.00114039557264672</v>
+        <v>0.164076396311643</v>
       </c>
       <c r="T17">
-        <v>0.001146831174317398</v>
+        <v>0.1509878171251195</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.8640563333333334</v>
+      </c>
+      <c r="H18">
+        <v>2.592169</v>
+      </c>
+      <c r="I18">
+        <v>0.4650918151061195</v>
+      </c>
+      <c r="J18">
+        <v>0.5439154786951998</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G18">
-        <v>0.019271</v>
-      </c>
-      <c r="H18">
-        <v>0.057813</v>
-      </c>
-      <c r="I18">
-        <v>0.009520285504820663</v>
-      </c>
-      <c r="J18">
-        <v>0.01359109226652674</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
       <c r="M18">
-        <v>0.7400273333333334</v>
+        <v>0.04119366666666666</v>
       </c>
       <c r="N18">
-        <v>2.220082</v>
+        <v>0.123581</v>
       </c>
       <c r="O18">
-        <v>0.224405308728099</v>
+        <v>0.02515697536537676</v>
       </c>
       <c r="P18">
-        <v>0.2371176952156863</v>
+        <v>0.02969290984798064</v>
       </c>
       <c r="Q18">
-        <v>0.01426106674066667</v>
+        <v>0.03559364857655556</v>
       </c>
       <c r="R18">
-        <v>0.128349600666</v>
+        <v>0.320342837189</v>
       </c>
       <c r="S18">
-        <v>0.002136402607888926</v>
+        <v>0.01170030333526301</v>
       </c>
       <c r="T18">
-        <v>0.003222688473702559</v>
+        <v>0.0161504332738178</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.019271</v>
+        <v>0.8640563333333334</v>
       </c>
       <c r="H19">
-        <v>0.057813</v>
+        <v>2.592169</v>
       </c>
       <c r="I19">
-        <v>0.009520285504820663</v>
+        <v>0.4650918151061195</v>
       </c>
       <c r="J19">
-        <v>0.01359109226652674</v>
+        <v>0.5439154786951998</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>1.407309</v>
+        <v>0.1108493333333333</v>
       </c>
       <c r="N19">
-        <v>4.221927000000001</v>
+        <v>0.332548</v>
       </c>
       <c r="O19">
-        <v>0.4267512784944416</v>
+        <v>0.06769569629478085</v>
       </c>
       <c r="P19">
-        <v>0.4509264070466212</v>
+        <v>0.07990158506668717</v>
       </c>
       <c r="Q19">
-        <v>0.02712025173900001</v>
+        <v>0.09578006851244446</v>
       </c>
       <c r="R19">
-        <v>0.244082265651</v>
+        <v>0.8620206166120001</v>
       </c>
       <c r="S19">
-        <v>0.004062794010814318</v>
+        <v>0.03148471426461224</v>
       </c>
       <c r="T19">
-        <v>0.006128582403584023</v>
+        <v>0.04345970889005239</v>
       </c>
     </row>
   </sheetData>
